--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>2.834883085887191</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.15735453995203</v>
+        <v>7.157354539952034</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.215240536131167</v>
+        <v>-1.470417234429842</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.599010413641556</v>
+        <v>-1.463211681882038</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.322912869882184</v>
+        <v>1.46326222017249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.482356651206155</v>
+        <v>0.6480086718542879</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.737414011724979</v>
+        <v>1.928739070875352</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.741294892513949</v>
+        <v>6.897910771649387</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4117040125171207</v>
+        <v>0.3757148527037664</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.080039773002797</v>
+        <v>1.130033722800346</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.33504566994803</v>
+        <v>5.500804635994315</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.894090666676938</v>
+        <v>2.751443588114735</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.513805905296709</v>
+        <v>2.594816818460715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.262849347180281</v>
+        <v>6.72854546425921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.96523552937394</v>
+        <v>4.929184505729522</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.301412332441388</v>
+        <v>7.113650204439239</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.87014537240549</v>
+        <v>11.7567866778206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.602854860863407</v>
+        <v>3.66567841408303</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.597397576111868</v>
+        <v>4.755733281472427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.000557987473002</v>
+        <v>9.019616538074597</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2403723281560878</v>
+        <v>-0.2893603666778813</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3043234995363046</v>
+        <v>-0.2922700755589531</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2310940297933651</v>
+        <v>0.2605700076891306</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04680557274018476</v>
+        <v>0.06935748822257451</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1724510782144899</v>
+        <v>0.2040124207727256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7108430102383615</v>
+        <v>0.7357850863444746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05697062515070924</v>
+        <v>0.04280615950576744</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1218291155189903</v>
+        <v>0.1615205990095938</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7369793010208099</v>
+        <v>0.7710453501378516</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.767320735596058</v>
+        <v>0.7531602402621345</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6684132427087462</v>
+        <v>0.6542755878825217</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.704483490512194</v>
+        <v>1.817296708246443</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6670041935767776</v>
+        <v>0.69005453724882</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.003026100549666</v>
+        <v>0.9754760023015877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.669518538567997</v>
+        <v>1.640968307465061</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6109817677692242</v>
+        <v>0.6147334232709483</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7422760704575774</v>
+        <v>0.8233826016869666</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.541009651474441</v>
+        <v>1.535983913650998</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.793692520279469</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.963091979919625</v>
+        <v>2.963091979919624</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.191870241888702</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1808071072741615</v>
+        <v>0.1818282334489975</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8309332738137208</v>
+        <v>0.7656126049688292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.516607919816849</v>
+        <v>1.500792394501226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05167769085309351</v>
+        <v>-0.09095419461357629</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.353640768175325</v>
+        <v>1.294881005210582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.658550674998907</v>
+        <v>1.696661045340578</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3546098211772127</v>
+        <v>0.3144737105207362</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.496488281006589</v>
+        <v>1.274023897736448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.915331240915831</v>
+        <v>1.936123513862388</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.097795527053904</v>
+        <v>2.080013378916347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.738235876227234</v>
+        <v>2.702346293805626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.527140177029359</v>
+        <v>3.426469616776001</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.964436253688633</v>
+        <v>2.868398626898503</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.301535163406114</v>
+        <v>4.323919100604454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.211287617421847</v>
+        <v>4.276434317672901</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.143371818730268</v>
+        <v>2.059195118370129</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.176087743217564</v>
+        <v>3.126432190673799</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.502146025510998</v>
+        <v>3.581726392809605</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.7465993490218388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7918704464579087</v>
+        <v>0.7918704464579084</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4672975312863581</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.07348085741129375</v>
+        <v>0.05099157961736846</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3685901088889859</v>
+        <v>0.4100573707484592</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7607096331733446</v>
+        <v>0.7707476795091717</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.00780783901316658</v>
+        <v>-0.01157863485251373</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2890318456049252</v>
+        <v>0.2976489357737818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3508562682256355</v>
+        <v>0.360252935466868</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1173050974085228</v>
+        <v>0.09976902404572671</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5037768889491375</v>
+        <v>0.4161101227976884</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6439612127920136</v>
+        <v>0.6458618085811101</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.083509006731832</v>
+        <v>1.932506347346706</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.62818386418547</v>
+        <v>2.597297194246767</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.465262821608206</v>
+        <v>3.398894731176766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9862717375044857</v>
+        <v>0.9782615362070255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.375071005727169</v>
+        <v>1.434776100304353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.38330069928423</v>
+        <v>1.388845577442626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9646443206946728</v>
+        <v>0.9457304887551228</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.498215496413591</v>
+        <v>1.467221102878955</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.633784429398887</v>
+        <v>1.69917525494151</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.2849320957755547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2127942876412433</v>
+        <v>-0.2127942876412436</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.8092698339073914</v>
@@ -1083,7 +1083,7 @@
         <v>-0.375317615556273</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4703933073737291</v>
+        <v>0.4703933073737298</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.7940979621229736</v>
@@ -1092,7 +1092,7 @@
         <v>-0.03247957683498795</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1501989213421848</v>
+        <v>0.1501989213421842</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.243216927472691</v>
+        <v>-1.478607036570086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.707387021438796</v>
+        <v>-1.770788519646509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.946510027926583</v>
+        <v>-2.319521566761437</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.323361533953948</v>
+        <v>-1.462466626360583</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.613587998712414</v>
+        <v>-2.456867184359302</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.675134774220429</v>
+        <v>-1.605405953815834</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6807549338468576</v>
+        <v>-0.7326445038356422</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.520060764324873</v>
+        <v>-1.328731742501741</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.226059347579826</v>
+        <v>-1.059199202766272</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.643952600388438</v>
+        <v>3.402281285562683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.290176042848143</v>
+        <v>2.368256201676759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.534022095164548</v>
+        <v>1.34945657336307</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.233339338613825</v>
+        <v>3.235824154976561</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.520997548809818</v>
+        <v>1.721347826308352</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.233356776501883</v>
+        <v>2.102251995622058</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.602671622339388</v>
+        <v>2.678427763891821</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.360351212361914</v>
+        <v>1.396275889475059</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.325231082745171</v>
+        <v>1.413134942570335</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1160529831091408</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.08667121828494813</v>
+        <v>-0.08667121828494827</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.287770712788974</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1334603283424085</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1672685817294303</v>
+        <v>0.1672685817294305</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3030131438836825</v>
@@ -1197,7 +1197,7 @@
         <v>-0.01239360778923299</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.05731313960579761</v>
+        <v>0.05731313960579734</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4611061033462316</v>
+        <v>-0.4915984185943742</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5226632621721709</v>
+        <v>-0.5379843048325035</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5573903446060952</v>
+        <v>-0.613799972110132</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3818823941708278</v>
+        <v>-0.422153845225137</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6593120319713601</v>
+        <v>-0.6530996983015046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3820820394238453</v>
+        <v>-0.3880791943823987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2246730072486651</v>
+        <v>-0.2677497106723263</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4393486506415868</v>
+        <v>-0.4196081839522717</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3572075484493628</v>
+        <v>-0.3148621834736492</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.220108665134117</v>
+        <v>2.436821381372586</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.665863902897909</v>
+        <v>1.691212438101412</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.148771541159058</v>
+        <v>0.9869671962937604</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.780628517072415</v>
+        <v>1.799436163617138</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8778457795552173</v>
+        <v>1.050529830612283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.345366039672076</v>
+        <v>1.25239882593473</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.365604569075424</v>
+        <v>1.248554611144668</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7050714179735234</v>
+        <v>0.7366075804909863</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.749215568751338</v>
+        <v>0.7433551859604054</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.07318317499055355</v>
+        <v>-0.03565031595373135</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1004179630462626</v>
+        <v>0.09351247628848142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8414565797422552</v>
+        <v>0.7441004315598683</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5302415097152344</v>
+        <v>0.6953743114051775</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.056874381393821</v>
+        <v>1.082396456792288</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.035185616472973</v>
+        <v>1.944753497070885</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6143956799316599</v>
+        <v>0.5689386592258483</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9101464067424967</v>
+        <v>0.8595982228291612</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.778402792758273</v>
+        <v>1.782002634655149</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.596944908147375</v>
+        <v>1.6406553101334</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.756482350060225</v>
+        <v>1.795862569921996</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.623831186640813</v>
+        <v>2.604979969440695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.911828105878827</v>
+        <v>2.933326110562362</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.527658331877684</v>
+        <v>3.593238449020342</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.157182861508977</v>
+        <v>4.057080019196888</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.037012295866759</v>
+        <v>2.065398073731169</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.444452901335456</v>
+        <v>2.347898956022285</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.14639161320898</v>
+        <v>3.125743072403083</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3553001623413545</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6560665847902716</v>
+        <v>0.6560665847902714</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3384692299243585</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02756819363821098</v>
+        <v>-0.01944731430137773</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02829012536769293</v>
+        <v>0.02695812390368665</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2551518421639538</v>
+        <v>0.2487050367113224</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08622766964649142</v>
+        <v>0.1097632076863541</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.174684311434287</v>
+        <v>0.1783374121452527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3461055839713849</v>
+        <v>0.3316866638259355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1438318544360568</v>
+        <v>0.1315576478847848</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2162765461727232</v>
+        <v>0.192351667539682</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4122980837478288</v>
+        <v>0.4121640965214924</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7153750116336799</v>
+        <v>0.7515077044816596</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7909418973648626</v>
+        <v>0.8276749365856063</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.147048360154936</v>
+        <v>1.211498932747435</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5991680585312639</v>
+        <v>0.6046621804094769</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7286191598192707</v>
+        <v>0.7434016992410319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8800181977314672</v>
+        <v>0.8453624182368561</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5638021945199304</v>
+        <v>0.5668586049460095</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6821053150145326</v>
+        <v>0.6405187981349927</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8779596575907597</v>
+        <v>0.8605473161786094</v>
       </c>
     </row>
     <row r="28">
